--- a/public/data/soil/soil_table_cameroon.xlsx
+++ b/public/data/soil/soil_table_cameroon.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -818,28 +818,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>76831</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>117248</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>674.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61.541</v>
+        <v>73.794</v>
       </c>
       <c r="I2" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.275</v>
+        <v>96.638</v>
       </c>
       <c r="K2" t="n">
-        <v>1.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -853,28 +853,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>41099.2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>788.7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>165258.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47713.9</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.884</v>
+        <v>17.302</v>
       </c>
       <c r="I3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>65.985</v>
+        <v>76.248</v>
       </c>
       <c r="K3" t="n">
-        <v>19.426</v>
+        <v>17.943</v>
       </c>
     </row>
     <row r="4">
@@ -888,28 +888,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>97900.9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>98006.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2853.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>140.807</v>
+        <v>154.914</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>95.696</v>
+        <v>82.179</v>
       </c>
       <c r="K4" t="n">
-        <v>0.482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -923,28 +923,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>136905.9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98747.7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4151</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>114.907</v>
+        <v>132.794</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>66.505</v>
+        <v>66.133</v>
       </c>
       <c r="K5" t="n">
-        <v>1.034</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="6">
@@ -958,28 +958,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>56020.6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>849.9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>332628.6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>52633.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41.328</v>
+        <v>13.545</v>
       </c>
       <c r="I6" t="n">
-        <v>1.084</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>282.66</v>
+        <v>334.539</v>
       </c>
       <c r="K6" t="n">
-        <v>54.764</v>
+        <v>20.971</v>
       </c>
     </row>
     <row r="7">
@@ -993,25 +993,25 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>72634.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5659</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.786</v>
+        <v>102.117</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.037</v>
+        <v>5.309</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>36016.8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30935.4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75.508</v>
+        <v>72.661</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>68.776</v>
+        <v>70.51</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>38743.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>29545</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.979</v>
+        <v>124.272</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.326</v>
+        <v>53.811</v>
       </c>
       <c r="K9" t="n">
-        <v>0.129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1098,25 +1098,25 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>170034.2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22066.7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.761</v>
+        <v>130.687</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.403</v>
+        <v>19.405</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>33360</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5227.4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>62.533</v>
+        <v>79.924</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.353</v>
+        <v>7.789</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1168,19 +1168,19 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>24326.7</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>378.8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50.561</v>
+        <v>56.403</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1203,25 +1203,25 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>5213.9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6602.3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.959</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1238,25 +1238,25 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>54960.2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>191.4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>83.378</v>
+        <v>129.203</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.701</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1273,25 +1273,25 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>41231.8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>558.9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.151</v>
+        <v>89.013</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.949</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1308,25 +1308,25 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>43909.7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.374</v>
+        <v>91.657</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>20688.3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8526</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>24.959</v>
+        <v>70.136</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.984</v>
+        <v>24.352</v>
       </c>
       <c r="K17" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1378,25 +1378,25 @@
         <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>54286.2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1126.6</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.75</v>
+        <v>175.714</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.716</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1413,25 +1413,25 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>85102.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39351.6</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.034</v>
+        <v>119.854</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>57.753</v>
+        <v>67.847</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>194586</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>281.8</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>16174</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>93.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.432</v>
+        <v>306.242</v>
       </c>
       <c r="I20" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.474</v>
+        <v>1.973</v>
       </c>
       <c r="K20" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>226634.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>309.333</v>
+        <v>341.069</v>
       </c>
     </row>
     <row r="22">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>360405.1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>444.211</v>
+        <v>475.519</v>
       </c>
     </row>
     <row r="23">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>221839.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>332.577</v>
+        <v>351.259</v>
       </c>
     </row>
     <row r="24">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>254057.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>355.712</v>
+        <v>354.22</v>
       </c>
     </row>
     <row r="25">
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128197.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>176.067</v>
+        <v>159.792</v>
       </c>
     </row>
     <row r="26">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>225487</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>322.83</v>
+        <v>389.264</v>
       </c>
     </row>
     <row r="27">
@@ -1693,25 +1693,25 @@
         <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>45298.4</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>87.9</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>16948.2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>135.039</v>
+        <v>171.513</v>
       </c>
       <c r="I27" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>36.024</v>
+        <v>36.057</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1728,25 +1728,25 @@
         <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>15728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>158.6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>11.257</v>
+        <v>33.114</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1763,25 +1763,25 @@
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>30311.1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2398.5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>40.42</v>
+        <v>128.445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.69</v>
+        <v>4.697</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1798,19 +1798,19 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>13214.2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2676</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1833,25 +1833,25 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>61953.8</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6130.9</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>92.123</v>
+        <v>96.473</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.694</v>
+        <v>9.08</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1868,25 +1868,25 @@
         <v>66</v>
       </c>
       <c r="D32" t="n">
-        <v>74865.7</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27140.1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>115.587</v>
+        <v>94.28</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.122</v>
+        <v>45.402</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>67</v>
       </c>
       <c r="D33" t="n">
-        <v>78167.3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>63817.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>129.447</v>
+        <v>142.344</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.627</v>
+        <v>90.958</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1938,25 +1938,25 @@
         <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>40996.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>45688.1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>58.365</v>
+        <v>55.515</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.074</v>
+        <v>91.408</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>69</v>
       </c>
       <c r="D35" t="n">
-        <v>92100.7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8580.3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>81.959</v>
+        <v>40.18</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>12.234</v>
+        <v>14.58</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2008,25 +2008,25 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>50312.8</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2294</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>93.646</v>
+        <v>123.101</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.642</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2043,25 +2043,25 @@
         <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>33439</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>18031.7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>53.191</v>
+        <v>61.526</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.447</v>
+        <v>24.659</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12228.1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>501763.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.103</v>
+        <v>13.431</v>
       </c>
       <c r="K38" t="n">
-        <v>678.149</v>
+        <v>745.566</v>
       </c>
     </row>
     <row r="39">
@@ -2113,28 +2113,28 @@
         <v>74</v>
       </c>
       <c r="D39" t="n">
-        <v>2518.3</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>662.7</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>80536.6</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>201345</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.184</v>
+        <v>0.469</v>
       </c>
       <c r="I39" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.283</v>
+        <v>19.985</v>
       </c>
       <c r="K39" t="n">
-        <v>58.271</v>
+        <v>60.098</v>
       </c>
     </row>
     <row r="40">
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>192928.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>300.45</v>
+        <v>262.585</v>
       </c>
     </row>
     <row r="41">
@@ -2183,28 +2183,28 @@
         <v>76</v>
       </c>
       <c r="D41" t="n">
-        <v>2314.4</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>950.4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>274214.5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>614438.1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>127.975</v>
+        <v>161.666</v>
       </c>
       <c r="K41" t="n">
-        <v>407.851</v>
+        <v>413.095</v>
       </c>
     </row>
     <row r="42">
@@ -2218,25 +2218,25 @@
         <v>78</v>
       </c>
       <c r="D42" t="n">
-        <v>60118.7</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>10328.8</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>44.069</v>
+        <v>38.45</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.562</v>
+        <v>7.17</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2253,25 +2253,25 @@
         <v>79</v>
       </c>
       <c r="D43" t="n">
-        <v>18627.3</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7359.5</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>42.365</v>
+        <v>65.179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.747</v>
+        <v>20.202</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2288,25 +2288,25 @@
         <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>27501.6</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>592.5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>40.968</v>
+        <v>28.597</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.319</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>81</v>
       </c>
       <c r="D45" t="n">
-        <v>9426.2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4459.3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>16.063</v>
+        <v>25.718</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.71</v>
+        <v>12.06</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2358,25 +2358,25 @@
         <v>82</v>
       </c>
       <c r="D46" t="n">
-        <v>68048.3</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10162.5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.11</v>
+        <v>112.83</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.412</v>
+        <v>10.743</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2393,25 +2393,25 @@
         <v>83</v>
       </c>
       <c r="D47" t="n">
-        <v>19482.7</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>5021.2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.821</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.038</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2428,25 +2428,25 @@
         <v>84</v>
       </c>
       <c r="D48" t="n">
-        <v>21534.8</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>10340.2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>53.009</v>
+        <v>70.836</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>22.278</v>
+        <v>18.08</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2463,25 +2463,25 @@
         <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>110768.7</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>92064.2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>221.676</v>
+        <v>255.303</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>156.134</v>
+        <v>126.034</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2498,25 +2498,25 @@
         <v>87</v>
       </c>
       <c r="D50" t="n">
-        <v>28757.8</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>149.1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>14432.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>43.309</v>
+        <v>43.004</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>32.587</v>
+        <v>71.846</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2533,28 +2533,28 @@
         <v>88</v>
       </c>
       <c r="D51" t="n">
-        <v>7713.9</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>88.3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>461.1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>23.237</v>
+        <v>89.625</v>
       </c>
       <c r="I51" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.942</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2568,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="D52" t="n">
-        <v>13795.2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>39.958</v>
+        <v>50.716</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>90</v>
       </c>
       <c r="D53" t="n">
-        <v>31777.3</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>14967.7</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>50.637</v>
+        <v>153.941</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>8.004</v>
+        <v>13.062</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2638,25 +2638,25 @@
         <v>91</v>
       </c>
       <c r="D54" t="n">
-        <v>29668</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1955.4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>93.602</v>
+        <v>167.206</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.146</v>
+        <v>11.495</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2673,25 +2673,25 @@
         <v>92</v>
       </c>
       <c r="D55" t="n">
-        <v>13730.4</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>930.4</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>35.494</v>
+        <v>68.591</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.587</v>
+        <v>6.453</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
         <v>94</v>
       </c>
       <c r="D56" t="n">
-        <v>45570.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>214.2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>104.541</v>
+        <v>209.723</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2743,19 +2743,19 @@
         <v>95</v>
       </c>
       <c r="D57" t="n">
-        <v>16181.1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>696.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>54.636</v>
+        <v>176.175</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2778,25 +2778,25 @@
         <v>96</v>
       </c>
       <c r="D58" t="n">
-        <v>18959.9</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>179.9</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>37.192</v>
+        <v>172.746</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>97</v>
       </c>
       <c r="D59" t="n">
-        <v>17530.6</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>38.254</v>
+        <v>98.23</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_cameroon.xlsx
+++ b/public/data/soil/soil_table_cameroon.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -818,13 +818,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10413.7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>19149.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11472.8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50290.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8256.6</v>
       </c>
       <c r="H3" t="n">
         <v>17.302</v>
@@ -888,13 +888,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41266.7</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25047.4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -923,16 +923,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5950.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>13294.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>431.1</v>
       </c>
       <c r="H5" t="n">
         <v>132.794</v>
@@ -958,16 +958,16 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5119.6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>132069.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7291.5</v>
       </c>
       <c r="H6" t="n">
         <v>13.545</v>
@@ -993,13 +993,13 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>139222.5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4420.8</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>48783.7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>48621.8</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>64665.9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41434.7</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>162316.7</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>19444.6</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>46702.4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8536.6</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35056.9</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9450</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6287.3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>89217</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>59068</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>57820.8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7815.1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4533</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>72786.9</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65774.5</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>25340.3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>121420.3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>109.4</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>265868.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>214120.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>231685</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>271242.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>168619.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>333257.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>43461.2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>13044.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>41447.3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>90520.9</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4992</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>19681.6</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1767.9</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37723.2</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4443.3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>66</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>47665.7</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>19034</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>67</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27000.3</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>21709.7</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>19449.8</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28176.7</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>69</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>62274</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4542.1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>30059.2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1821.2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>31957</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19732</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7224.7</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>335950.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2113,16 +2113,16 @@
         <v>74</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3053.2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>29942.5</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>88740.2</v>
       </c>
       <c r="H39" t="n">
         <v>0.469</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>221634.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>71106.5</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>145136.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2218,13 +2218,13 @@
         <v>78</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>59779.3</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6603.9</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>79</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30961.9</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9027.2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>31087.3</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>81</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>11891.6</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3585.6</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2358,13 +2358,13 @@
         <v>82</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>62440.8</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>8441.6</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>83</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>21549.2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>84</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>27214.1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2969.6</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>44011.4</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>44921.1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2498,13 +2498,13 @@
         <v>87</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>30079.1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>12062.4</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>88</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>7896.8</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1169.3</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>23163.8</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>90</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>33750.1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>12584.3</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2638,13 +2638,13 @@
         <v>91</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>52242.5</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>475.3</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2673,13 +2673,13 @@
         <v>92</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>41130.1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1418.8</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>94</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>69148.9</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>95</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>73967.2</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>96</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>54245.6</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>97</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>33551.5</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
